--- a/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDDAD57-5361-4C41-8313-345F82D60712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B2BB0-FDC3-4609-A92C-F23D76B905D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15960" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="1410" windowWidth="14085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -275,20 +275,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -297,6 +287,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -579,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165:C169"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,12 +595,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -710,12 +713,12 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -828,12 +831,12 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -978,12 +981,12 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -1128,13 +1131,13 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1147,18 +1150,18 @@
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="13"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,7 +1224,9 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
+      <c r="B54" s="5">
+        <v>1</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1244,12 +1249,12 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
@@ -1329,7 +1334,9 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1344,12 +1351,12 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
@@ -1429,7 +1436,9 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5">
+        <v>1</v>
+      </c>
       <c r="C75" s="5"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1444,14 +1453,14 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
@@ -1463,11 +1472,11 @@
       <c r="C78" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="11"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="13"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1529,7 +1538,9 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="5">
+        <v>1</v>
+      </c>
       <c r="C85" s="5"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -1544,14 +1555,14 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="15"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="11"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -1563,11 +1574,11 @@
       <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -1629,7 +1640,9 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
+      <c r="B95" s="5">
+        <v>1</v>
+      </c>
       <c r="C95" s="5"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -1644,12 +1657,12 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
@@ -1721,7 +1734,9 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="5">
+        <v>1</v>
+      </c>
       <c r="C104" s="5"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -1736,14 +1751,14 @@
       <c r="F105" s="1"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
@@ -1755,11 +1770,11 @@
       <c r="C107" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="14" t="s">
+      <c r="D107" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
@@ -1813,7 +1828,9 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="5">
+        <v>10</v>
+      </c>
       <c r="C113" s="5"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -1828,12 +1845,12 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="11"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="13"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
     </row>
@@ -1905,7 +1922,9 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="5"/>
+      <c r="B122" s="5">
+        <v>3</v>
+      </c>
       <c r="C122" s="5"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -1920,14 +1939,14 @@
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
@@ -1939,11 +1958,11 @@
       <c r="C125" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
@@ -1997,7 +2016,9 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="B131" s="5">
+        <v>1</v>
+      </c>
       <c r="C131" s="5"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -2012,12 +2033,12 @@
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
+      <c r="A133" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
@@ -2097,19 +2118,21 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
+      <c r="B141" s="5">
+        <v>5</v>
+      </c>
       <c r="C141" s="5"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
@@ -2167,7 +2190,9 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
+      <c r="B151" s="5">
+        <v>500</v>
+      </c>
       <c r="C151" s="5"/>
       <c r="D151" s="1"/>
     </row>
@@ -2178,12 +2203,12 @@
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
@@ -2224,16 +2249,18 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
+      <c r="B160" s="5">
+        <v>300</v>
+      </c>
       <c r="C160" s="5"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
@@ -2274,18 +2301,20 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
+      <c r="B169" s="5">
+        <v>5</v>
+      </c>
       <c r="C169" s="5"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
-      <c r="E171" s="13"/>
-      <c r="F171" s="13"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="17"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
+      <c r="F171" s="17"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
@@ -2297,11 +2326,11 @@
       <c r="C172" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="D172" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
+      <c r="E172" s="11"/>
+      <c r="F172" s="11"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
@@ -2328,18 +2357,20 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
+      <c r="B178" s="5">
+        <v>3</v>
+      </c>
       <c r="C178" s="5"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="13" t="s">
+      <c r="A180" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
+      <c r="F180" s="17"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
@@ -2351,11 +2382,11 @@
       <c r="C181" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="14" t="s">
+      <c r="D181" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
@@ -2377,31 +2408,18 @@
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
-      <c r="B187" s="5"/>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
       <c r="C187" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="D107:F107"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="A162:D162"/>
     <mergeCell ref="A171:F171"/>
@@ -2413,6 +2431,21 @@
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A144:D144"/>
     <mergeCell ref="A153:D153"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B2BB0-FDC3-4609-A92C-F23D76B905D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DB61B-6131-4AF6-91FC-9953FDD210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="1410" windowWidth="14085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="2805" windowWidth="14085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
   <si>
     <t>D1 Inserimento di un nuovo vaccino</t>
   </si>
@@ -142,6 +142,33 @@
   </si>
   <si>
     <t>I6 Visualizzazione delle vaccinazioni effettuate da uno specifico paziente</t>
+  </si>
+  <si>
+    <t>*Vedere analisi ridondanze</t>
+  </si>
+  <si>
+    <t>Vaccinazione</t>
+  </si>
+  <si>
+    <t>Effettua</t>
+  </si>
+  <si>
+    <t>Residenza</t>
+  </si>
+  <si>
+    <t>*9000=300(vaccinazioni al giorno)*30 giorni</t>
+  </si>
+  <si>
+    <t>Riceve</t>
+  </si>
+  <si>
+    <t>Paziente</t>
+  </si>
+  <si>
+    <t>*10000 vaccini fatti in un mese</t>
+  </si>
+  <si>
+    <t>*10000 paziente ma 2000 hanno fatto il richiamo</t>
   </si>
 </sst>
 </file>
@@ -185,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -245,11 +272,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -272,13 +308,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -287,19 +333,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -580,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,12 +649,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -713,12 +767,12 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -831,12 +885,12 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -981,12 +1035,12 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -1131,13 +1185,13 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,18 +1204,26 @@
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="13"/>
+      <c r="E46" s="11"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="A47" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="8">
+        <v>300</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="11"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1184,7 +1246,9 @@
       <c r="A50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5">
+        <v>0</v>
+      </c>
       <c r="C50" s="7"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -1194,7 +1258,9 @@
       <c r="A51" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="5"/>
+      <c r="B51" s="5">
+        <v>300</v>
+      </c>
       <c r="C51" s="7"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -1223,11 +1289,15 @@
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5">
+        <v>300</v>
+      </c>
       <c r="B54" s="5">
         <v>1</v>
       </c>
-      <c r="C54" s="5"/>
+      <c r="C54" s="5">
+        <v>300</v>
+      </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1249,14 +1319,16 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
@@ -1275,10 +1347,18 @@
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
+      <c r="A59" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4">
+        <v>100</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
@@ -1294,7 +1374,9 @@
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1304,7 +1386,9 @@
       <c r="A62" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="5"/>
+      <c r="B62" s="5">
+        <v>100</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1333,11 +1417,15 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
+      <c r="A65" s="5">
+        <v>100</v>
+      </c>
       <c r="B65" s="5">
         <v>1</v>
       </c>
-      <c r="C65" s="5"/>
+      <c r="C65" s="5">
+        <v>100</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1351,12 +1439,12 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="15"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
@@ -1377,218 +1465,275 @@
       <c r="F68" s="1"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
+      <c r="A69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="A70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4">
+        <v>98000</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="A71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="4">
+        <v>98000</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="5"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="A73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0</v>
+      </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A74" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="5">
+        <v>197000</v>
+      </c>
+      <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5">
-        <v>1</v>
-      </c>
-      <c r="C75" s="5"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+      <c r="A76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="5">
+        <v>197000</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1</v>
+      </c>
+      <c r="C77" s="5">
+        <v>197000</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D80" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="13"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="11"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D81" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="4">
+        <v>9000</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="20"/>
+      <c r="F82" s="21"/>
+      <c r="G82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="4">
+        <v>9000</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="20"/>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="B85" s="5">
-        <v>1</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="5">
+        <v>19000</v>
+      </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="11"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>19000</v>
+      </c>
+      <c r="B89" s="5">
+        <v>1</v>
+      </c>
+      <c r="C89" s="5">
+        <v>19000</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -1596,59 +1741,81 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" s="5"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5">
-        <v>1</v>
-      </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="15"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="20"/>
+      <c r="F93" s="21"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -1656,33 +1823,31 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>4</v>
-      </c>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="5">
+        <v>21000</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -1690,27 +1855,35 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="5"/>
-      <c r="C100" s="1"/>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="5"/>
-      <c r="C101" s="1"/>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>21000</v>
+      </c>
+      <c r="B101" s="5">
+        <v>1</v>
+      </c>
+      <c r="C101" s="5">
+        <v>21000</v>
+      </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -1718,65 +1891,93 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="1"/>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="12"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="5"/>
-      <c r="B104" s="5">
-        <v>1</v>
-      </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="1"/>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="4">
+        <v>10</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="4">
+        <v>10000</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="23"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="23"/>
+      <c r="J106" s="23"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="4">
+        <v>8000</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F107" s="23"/>
+      <c r="G107" s="23"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="23"/>
+      <c r="J107" s="23"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -1784,27 +1985,31 @@
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B109" s="5"/>
+      <c r="B109" s="5">
+        <v>0</v>
+      </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="5"/>
+      <c r="B110" s="5">
+        <v>19000</v>
+      </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -1812,7 +2017,7 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>9</v>
       </c>
@@ -1820,18 +2025,22 @@
         <v>10</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="5"/>
+      <c r="A113" s="5">
+        <v>19000</v>
+      </c>
       <c r="B113" s="5">
-        <v>10</v>
-      </c>
-      <c r="C113" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="C113" s="5">
+        <v>19000</v>
+      </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -1845,14 +2054,14 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="A115" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -1864,39 +2073,53 @@
       <c r="C116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="A117" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="4"/>
+      <c r="D117" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="20"/>
+      <c r="F117" s="21"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="5"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="A118" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="4"/>
+      <c r="D118" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="20"/>
+      <c r="F118" s="21"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="5"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="A119" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="20"/>
+      <c r="F119" s="21"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
@@ -1907,25 +2130,21 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5">
-        <v>3</v>
-      </c>
-      <c r="C122" s="5"/>
+      <c r="A122" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -1939,30 +2158,28 @@
       <c r="F123" s="1"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
+      <c r="A124" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
+      <c r="A125" s="5"/>
+      <c r="B125" s="5">
+        <v>10</v>
+      </c>
+      <c r="C125" s="5"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
@@ -1973,54 +2190,76 @@
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" s="5"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
+      <c r="A127" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B128" s="5"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
+      <c r="A128" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="A129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="4">
+        <v>10</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="A130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" s="4">
         <v>10</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D130" s="1"/>
+      <c r="D130" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5">
-        <v>1</v>
-      </c>
-      <c r="C131" s="5"/>
-      <c r="D131" s="1"/>
+      <c r="A131" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" s="4">
+        <v>10</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
     </row>
@@ -2033,28 +2272,26 @@
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
+      <c r="A133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="5">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="5">
+        <v>30</v>
+      </c>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
@@ -2067,202 +2304,294 @@
       <c r="F135" s="1"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="5"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="5">
+        <v>30</v>
+      </c>
+      <c r="B137" s="5">
+        <v>3</v>
+      </c>
+      <c r="C137" s="5">
+        <v>90</v>
+      </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B138" s="5"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="A139" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" s="4">
+        <v>5</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="4">
+        <v>5</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4">
         <v>10</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5">
-        <v>5</v>
-      </c>
-      <c r="C141" s="5"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="D143" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" s="5">
+        <v>0</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" s="5">
+        <v>20</v>
+      </c>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="5"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="5">
+        <v>20</v>
+      </c>
+      <c r="B149" s="5">
+        <v>1</v>
+      </c>
+      <c r="C149" s="5">
+        <v>20</v>
+      </c>
       <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="12"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5">
-        <v>500</v>
-      </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B156" s="5"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B157" s="5"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5">
-        <v>300</v>
-      </c>
-      <c r="C160" s="5"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B162" s="10"/>
-      <c r="C162" s="10"/>
-      <c r="D162" s="10"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C158" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5">
+        <v>5</v>
+      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>1</v>
       </c>
@@ -2276,19 +2605,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B165" s="5"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="5"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>9</v>
       </c>
@@ -2298,25 +2643,31 @@
       <c r="C168" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="5">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="C169" s="5"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B171" s="12"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>1</v>
       </c>
@@ -2326,19 +2677,17 @@
       <c r="C172" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B174" s="5"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>8</v>
       </c>
@@ -2352,25 +2701,23 @@
         <v>10</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="5">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="C178" s="5"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
+      <c r="A180" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
@@ -2382,11 +2729,9 @@
       <c r="C181" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="15" t="s">
+      <c r="D181" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
@@ -2408,44 +2753,171 @@
         <v>10</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C187" s="5"/>
     </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="13"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="13"/>
+      <c r="F189" s="13"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="5"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B193" s="5"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="5"/>
+      <c r="B196" s="5">
+        <v>3</v>
+      </c>
+      <c r="C196" s="5"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B198" s="13"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="13"/>
+      <c r="F198" s="13"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="5"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="5"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="5"/>
+      <c r="B205" s="5">
+        <v>1</v>
+      </c>
+      <c r="C205" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="D172:F172"/>
-    <mergeCell ref="D181:F181"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="D78:F78"/>
+  <mergeCells count="41">
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="D80:F80"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A180:D180"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="D190:F190"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A171:D171"/>
+    <mergeCell ref="D143:F143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12DB61B-6131-4AF6-91FC-9953FDD210D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5AEFE1-1069-4335-9EDC-FBDC98496761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="2805" windowWidth="14085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="915" windowWidth="14085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="49">
   <si>
     <t>D1 Inserimento di un nuovo vaccino</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>*10000 paziente ma 2000 hanno fatto il richiamo</t>
+  </si>
+  <si>
+    <t>Patologia</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,29 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,12 +329,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -634,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,12 +658,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -767,12 +776,12 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -885,12 +894,12 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
@@ -1035,12 +1044,12 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
@@ -1185,13 +1194,13 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,10 +1213,10 @@
       <c r="C46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1220,10 +1229,10 @@
       <c r="C47" s="8">
         <v>300</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="11"/>
+      <c r="D47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="18"/>
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1319,12 +1328,12 @@
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
         <v>39</v>
@@ -1439,12 +1448,12 @@
       <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
@@ -1589,14 +1598,14 @@
       <c r="F78" s="1"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
@@ -1608,11 +1617,11 @@
       <c r="C80" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="11"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
@@ -1624,11 +1633,11 @@
       <c r="C81" s="4">
         <v>1000</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
+      <c r="D81" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
@@ -1640,11 +1649,11 @@
       <c r="C82" s="4">
         <v>9000</v>
       </c>
-      <c r="D82" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="21"/>
+      <c r="D82" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="13"/>
       <c r="G82" t="s">
         <v>43</v>
       </c>
@@ -1659,11 +1668,11 @@
       <c r="C83" s="4">
         <v>9000</v>
       </c>
-      <c r="D83" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="21"/>
+      <c r="D83" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="13"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -1742,14 +1751,14 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
@@ -1761,11 +1770,11 @@
       <c r="C92" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
@@ -1777,11 +1786,11 @@
       <c r="C93" s="4">
         <v>1000</v>
       </c>
-      <c r="D93" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="20"/>
-      <c r="F93" s="21"/>
+      <c r="D93" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="12"/>
+      <c r="F93" s="13"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
@@ -1793,11 +1802,11 @@
       <c r="C94" s="4">
         <v>10000</v>
       </c>
-      <c r="D94" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
+      <c r="D94" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
@@ -1809,11 +1818,11 @@
       <c r="C95" s="4">
         <v>10000</v>
       </c>
-      <c r="D95" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
+      <c r="D95" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
@@ -1892,12 +1901,12 @@
       <c r="F102" s="1"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
     </row>
@@ -2054,14 +2063,14 @@
       <c r="F114" s="1"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
@@ -2073,11 +2082,11 @@
       <c r="C116" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D116" s="14" t="s">
+      <c r="D116" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
@@ -2087,11 +2096,11 @@
         <v>6</v>
       </c>
       <c r="C117" s="4"/>
-      <c r="D117" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="20"/>
-      <c r="F117" s="21"/>
+      <c r="D117" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="12"/>
+      <c r="F117" s="13"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -2101,11 +2110,11 @@
         <v>16</v>
       </c>
       <c r="C118" s="4"/>
-      <c r="D118" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="20"/>
-      <c r="F118" s="21"/>
+      <c r="D118" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="12"/>
+      <c r="F118" s="13"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
@@ -2115,11 +2124,11 @@
         <v>6</v>
       </c>
       <c r="C119" s="4"/>
-      <c r="D119" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="20"/>
-      <c r="F119" s="21"/>
+      <c r="D119" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="13"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
@@ -2190,12 +2199,12 @@
       <c r="F126" s="1"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="11"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
     </row>
@@ -2340,14 +2349,14 @@
       <c r="F138" s="1"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
@@ -2359,11 +2368,11 @@
       <c r="C140" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="D140" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
@@ -2375,11 +2384,11 @@
       <c r="C141" s="4">
         <v>5</v>
       </c>
-      <c r="D141" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
+      <c r="D141" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
@@ -2391,11 +2400,11 @@
       <c r="C142" s="4">
         <v>5</v>
       </c>
-      <c r="D142" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
+      <c r="D142" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
@@ -2407,11 +2416,11 @@
       <c r="C143" s="4">
         <v>10</v>
       </c>
-      <c r="D143" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
+      <c r="D143" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
@@ -2490,12 +2499,12 @@
       <c r="F150" s="1"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
     </row>
@@ -2516,10 +2525,18 @@
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="A153" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" s="9">
+        <v>1</v>
+      </c>
+      <c r="D153" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
     </row>
@@ -2535,7 +2552,9 @@
       <c r="A155" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B155" s="5"/>
+      <c r="B155" s="5">
+        <v>1</v>
+      </c>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -2545,7 +2564,9 @@
       <c r="A156" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B156" s="5"/>
+      <c r="B156" s="5">
+        <v>0</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -2574,22 +2595,26 @@
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="5"/>
+      <c r="A159" s="5">
+        <v>2</v>
+      </c>
       <c r="B159" s="5">
         <v>5</v>
       </c>
-      <c r="C159" s="5"/>
+      <c r="C159" s="5">
+        <v>10</v>
+      </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
@@ -2606,318 +2631,592 @@
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="A164" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="10">
+        <v>1</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="10">
+        <v>1</v>
+      </c>
+      <c r="D165" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B165" s="5"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B166" s="5"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="A166" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="10">
+        <v>1</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="A167" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C167" s="10">
+        <v>1</v>
+      </c>
+      <c r="D167" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D168" s="1"/>
+      <c r="A168" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C168" s="10">
+        <v>1</v>
+      </c>
+      <c r="D168" s="10" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5">
-        <v>500</v>
-      </c>
-      <c r="C169" s="5"/>
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
+      <c r="A170" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="5">
+        <v>5</v>
+      </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" s="5">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="5">
+        <v>10</v>
+      </c>
+      <c r="B174" s="5">
+        <v>500</v>
+      </c>
+      <c r="C174" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B172" s="3" t="s">
+      <c r="B176" s="15"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C178" s="10">
+        <v>1</v>
+      </c>
+      <c r="D178" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B174" s="5"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="5"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B181" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B183" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C183" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="10">
+        <v>2</v>
+      </c>
+      <c r="B184" s="10">
         <v>300</v>
       </c>
-      <c r="C178" s="5"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="12" t="s">
+      <c r="C184" s="10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B181" s="3" t="s">
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C187" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="10">
+        <v>1</v>
+      </c>
+      <c r="D188" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B183" s="5"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B184" s="5"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B193" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C193" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="5"/>
-      <c r="B187" s="5">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="5">
+        <v>2</v>
+      </c>
+      <c r="B194" s="5">
         <v>5</v>
       </c>
-      <c r="C187" s="5"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="13" t="s">
+      <c r="C194" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B189" s="13"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
-      <c r="E189" s="13"/>
-      <c r="F189" s="13"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B190" s="3" t="s">
+      <c r="B196" s="25"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="25"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C197" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="D197" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
+      <c r="E197" s="16"/>
+      <c r="F197" s="16"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="10">
+        <v>1</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="12"/>
+      <c r="F198" s="13"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C199" s="10">
+        <v>50</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="12"/>
+      <c r="F199" s="13"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C200" s="10">
+        <v>50</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="12"/>
+      <c r="F200" s="13"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C201" s="10">
+        <v>50</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="12"/>
+      <c r="F201" s="13"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C202" s="10">
+        <v>50</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="12"/>
+      <c r="F202" s="13"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B192" s="5"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B193" s="5"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
+      <c r="B204" s="5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B207" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="5"/>
-      <c r="B196" s="5">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="5">
+        <v>201</v>
+      </c>
+      <c r="B208" s="5">
         <v>3</v>
       </c>
-      <c r="C196" s="5"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="13" t="s">
+      <c r="C208" s="5">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B198" s="13"/>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13"/>
-      <c r="E198" s="13"/>
-      <c r="F198" s="13"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B199" s="3" t="s">
+      <c r="B210" s="25"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
+      <c r="F210" s="25"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B211" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C211" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D199" s="14" t="s">
+      <c r="D211" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="10">
+        <v>5000</v>
+      </c>
+      <c r="D212" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="12"/>
+      <c r="F212" s="13"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" s="10">
+        <v>2</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="12"/>
+      <c r="F213" s="13"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="10">
+        <v>2</v>
+      </c>
+      <c r="D214" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="12"/>
+      <c r="F214" s="13"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B201" s="5"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B202" s="5"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3" t="s">
+      <c r="B216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B217" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B219" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C219" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="5"/>
-      <c r="B205" s="5">
-        <v>1</v>
-      </c>
-      <c r="C205" s="5"/>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="5">
+        <v>5004</v>
+      </c>
+      <c r="B220" s="5">
+        <v>1</v>
+      </c>
+      <c r="C220" s="5">
+        <v>5004</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="D117:F117"/>
-    <mergeCell ref="D118:F118"/>
-    <mergeCell ref="D119:F119"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="D81:F81"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="49">
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D213:F213"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A176:D176"/>
+    <mergeCell ref="D143:F143"/>
+    <mergeCell ref="D198:F198"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="D197:F197"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="D199:F199"/>
+    <mergeCell ref="D200:F200"/>
+    <mergeCell ref="D201:F201"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="D116:F116"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="E107:J107"/>
+    <mergeCell ref="E106:J106"/>
     <mergeCell ref="A79:F79"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="D80:F80"/>
     <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D81:F81"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
     <mergeCell ref="D92:F92"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="D116:F116"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="E107:J107"/>
-    <mergeCell ref="E106:J106"/>
+    <mergeCell ref="D117:F117"/>
+    <mergeCell ref="D118:F118"/>
+    <mergeCell ref="D119:F119"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
     <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A180:D180"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="D190:F190"/>
-    <mergeCell ref="D199:F199"/>
-    <mergeCell ref="A198:F198"/>
     <mergeCell ref="D140:F140"/>
     <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A171:D171"/>
-    <mergeCell ref="D143:F143"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3D0F93-55A8-4DFE-9E50-589B918143BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2134230-7DA7-4B03-84B3-16348BC43AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1875" windowWidth="13995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="58">
   <si>
     <t>D1 Inserimento di un nuovo vaccino</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>800(Infermieri)*16(Vaccini fatti da inf. In un giorno)= 12800</t>
+  </si>
+  <si>
+    <t>16.000*30(giorni in un mese)=480.000</t>
+  </si>
+  <si>
+    <t>Risiede</t>
+  </si>
+  <si>
+    <t>112.000(Vaccini a settimana)/1.000(Tot.Infermieri)=112 vaccini a settimana</t>
+  </si>
+  <si>
+    <t>Prima dose+richiamo=2 in media a persona</t>
   </si>
 </sst>
 </file>
@@ -303,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -341,6 +353,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,20 +378,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -381,26 +409,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -683,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K228"/>
+  <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="C157" sqref="C157"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,12 +713,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -816,12 +831,12 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -966,12 +981,12 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -1116,12 +1131,12 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1298,13 +1313,13 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1317,10 +1332,10 @@
       <c r="C50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="30"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1333,14 +1348,14 @@
       <c r="C51" s="11">
         <v>1</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
+      <c r="D51" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="20"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
@@ -1352,18 +1367,18 @@
       <c r="C52" s="11">
         <v>16</v>
       </c>
-      <c r="D52" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="32" t="s">
+      <c r="D52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
@@ -1375,14 +1390,14 @@
       <c r="C53" s="11">
         <v>16</v>
       </c>
-      <c r="D53" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
+      <c r="D53" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="20"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
@@ -1394,14 +1409,14 @@
       <c r="C54" s="11">
         <v>16</v>
       </c>
-      <c r="D54" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
+      <c r="D54" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="20"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
@@ -1413,10 +1428,10 @@
       <c r="C55" s="8">
         <v>16</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="24"/>
+      <c r="D55" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="30"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -1512,12 +1527,12 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>39</v>
@@ -1632,12 +1647,12 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="20"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
@@ -1664,7 +1679,7 @@
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="17">
         <v>1000</v>
       </c>
       <c r="D77" s="4" t="s">
@@ -1680,7 +1695,7 @@
       <c r="B78" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="34">
+      <c r="C78" s="17">
         <v>1000000</v>
       </c>
       <c r="D78" s="4" t="s">
@@ -1696,7 +1711,7 @@
       <c r="B79" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="34">
+      <c r="C79" s="17">
         <v>1000000</v>
       </c>
       <c r="D79" s="4" t="s">
@@ -1729,7 +1744,7 @@
       <c r="A82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="33">
+      <c r="B82" s="16">
         <v>2001000</v>
       </c>
       <c r="C82" s="1"/>
@@ -1760,13 +1775,13 @@
       <c r="F84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="33">
+      <c r="A85" s="16">
         <v>2001000</v>
       </c>
       <c r="B85" s="5">
         <v>1</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C85" s="16">
         <v>2001000</v>
       </c>
       <c r="D85" s="1"/>
@@ -1782,14 +1797,14 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -1801,11 +1816,11 @@
       <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="24"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -1814,14 +1829,14 @@
       <c r="B89" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="17">
         <v>1000</v>
       </c>
-      <c r="D89" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="D89" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
@@ -1830,16 +1845,16 @@
       <c r="B90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="17">
         <v>480000</v>
       </c>
-      <c r="D90" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="15"/>
+      <c r="D90" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
       <c r="G90" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -1849,14 +1864,14 @@
       <c r="B91" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="17">
         <v>480000</v>
       </c>
-      <c r="D91" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="15"/>
+      <c r="D91" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="19"/>
+      <c r="F91" s="20"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
@@ -1882,7 +1897,7 @@
       <c r="A94" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94" s="16">
         <v>961000</v>
       </c>
       <c r="C94" s="1"/>
@@ -1913,13 +1928,13 @@
       <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="5">
+      <c r="A97" s="16">
         <v>961000</v>
       </c>
       <c r="B97" s="5">
         <v>1</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="16">
         <v>961000</v>
       </c>
       <c r="D97" s="1"/>
@@ -1935,14 +1950,14 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="20"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="23"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -1954,11 +1969,11 @@
       <c r="C100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -1970,11 +1985,11 @@
       <c r="C101" s="4">
         <v>1000</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="14"/>
-      <c r="F101" s="15"/>
+      <c r="D101" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="19"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
@@ -1983,14 +1998,14 @@
       <c r="B102" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C102" s="34">
+      <c r="C102" s="17">
         <v>1000000</v>
       </c>
-      <c r="D102" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="D102" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
@@ -1999,14 +2014,14 @@
       <c r="B103" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="34">
+      <c r="C103" s="17">
         <v>1000000</v>
       </c>
-      <c r="D103" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
+      <c r="D103" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
@@ -2032,7 +2047,7 @@
       <c r="A106" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="33">
+      <c r="B106" s="16">
         <v>2001000</v>
       </c>
       <c r="C106" s="1"/>
@@ -2063,13 +2078,13 @@
       <c r="F108" s="1"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="33">
+      <c r="A109" s="16">
         <v>2001000</v>
       </c>
       <c r="B109" s="5">
         <v>1</v>
       </c>
-      <c r="C109" s="33">
+      <c r="C109" s="16">
         <v>2001000</v>
       </c>
       <c r="D109" s="1"/>
@@ -2085,12 +2100,12 @@
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
@@ -2133,20 +2148,20 @@
       <c r="B114" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C114" s="34">
+      <c r="C114" s="17">
         <v>480000</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="32" t="s">
+      <c r="E114" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-      <c r="I114" s="22"/>
-      <c r="J114" s="22"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
@@ -2155,20 +2170,20 @@
       <c r="B115" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="34">
+      <c r="C115" s="17">
         <v>300000</v>
       </c>
       <c r="D115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="21" t="s">
+      <c r="E115" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27"/>
+      <c r="H115" s="27"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
@@ -2194,7 +2209,7 @@
       <c r="A118" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B118" s="33">
+      <c r="B118" s="16">
         <v>780010</v>
       </c>
       <c r="C118" s="1"/>
@@ -2225,13 +2240,13 @@
       <c r="F120" s="1"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="33">
+      <c r="A121" s="16">
         <v>780010</v>
       </c>
       <c r="B121" s="5">
         <v>1</v>
       </c>
-      <c r="C121" s="33">
+      <c r="C121" s="16">
         <v>780010</v>
       </c>
       <c r="D121" s="1"/>
@@ -2247,14 +2262,14 @@
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="21"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="21"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2266,11 +2281,11 @@
       <c r="C124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="20"/>
-      <c r="F124" s="20"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="23"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -2282,11 +2297,11 @@
       <c r="C125" s="4">
         <v>800</v>
       </c>
-      <c r="D125" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="14"/>
-      <c r="F125" s="15"/>
+      <c r="D125" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="19"/>
+      <c r="F125" s="20"/>
       <c r="G125" t="s">
         <v>52</v>
       </c>
@@ -2298,14 +2313,14 @@
       <c r="B126" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="17">
         <v>12800</v>
       </c>
-      <c r="D126" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="14"/>
-      <c r="F126" s="15"/>
+      <c r="D126" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20"/>
       <c r="G126" t="s">
         <v>53</v>
       </c>
@@ -2317,14 +2332,14 @@
       <c r="B127" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="17">
         <v>12800</v>
       </c>
-      <c r="D127" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="14"/>
-      <c r="F127" s="15"/>
+      <c r="D127" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="20"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
@@ -2350,7 +2365,7 @@
       <c r="A130" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B130" s="5">
+      <c r="B130" s="16">
         <v>26400</v>
       </c>
       <c r="C130" s="1"/>
@@ -2381,13 +2396,13 @@
       <c r="F132" s="1"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="33">
+      <c r="A133" s="16">
         <v>26400</v>
       </c>
       <c r="B133" s="5">
         <v>10</v>
       </c>
-      <c r="C133" s="33">
+      <c r="C133" s="16">
         <v>264000</v>
       </c>
       <c r="D133" s="1"/>
@@ -2403,12 +2418,12 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="24"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="30"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
@@ -2553,14 +2568,14 @@
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="16" t="s">
+      <c r="A147" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16"/>
+      <c r="B147" s="21"/>
+      <c r="C147" s="21"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="21"/>
+      <c r="F147" s="21"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
@@ -2572,11 +2587,11 @@
       <c r="C148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="20"/>
-      <c r="F148" s="20"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="23"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
@@ -2588,11 +2603,11 @@
       <c r="C149" s="4">
         <v>5</v>
       </c>
-      <c r="D149" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
+      <c r="D149" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
@@ -2604,11 +2619,11 @@
       <c r="C150" s="4">
         <v>5</v>
       </c>
-      <c r="D150" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
+      <c r="D150" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -2620,11 +2635,11 @@
       <c r="C151" s="4">
         <v>10</v>
       </c>
-      <c r="D151" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
+      <c r="D151" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
@@ -2703,12 +2718,12 @@
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="16" t="s">
+      <c r="A159" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
+      <c r="B159" s="21"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
@@ -2739,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -2813,12 +2828,12 @@
       <c r="F167" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="16" t="s">
+      <c r="A170" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="21"/>
+      <c r="D170" s="21"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -2845,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -2925,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="B179" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -2949,14 +2964,14 @@
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="5">
-        <v>10</v>
+      <c r="A182" s="16">
+        <v>9</v>
       </c>
       <c r="B182" s="5">
         <v>500</v>
       </c>
-      <c r="C182" s="5">
-        <v>5000</v>
+      <c r="C182" s="16">
+        <v>4500</v>
       </c>
       <c r="D182" s="1"/>
     </row>
@@ -2967,12 +2982,12 @@
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="16" t="s">
+      <c r="A184" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B184" s="16"/>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -3002,372 +3017,406 @@
         <v>7</v>
       </c>
     </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" s="13">
+        <v>1</v>
+      </c>
+      <c r="D187" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" s="13">
+        <v>1</v>
+      </c>
+      <c r="D188" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B188" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B189" s="10">
+      <c r="B190" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B191" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="10">
+        <v>5</v>
+      </c>
+      <c r="B194" s="10">
+        <v>300</v>
+      </c>
+      <c r="C194" s="17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B196" s="21"/>
+      <c r="C196" s="21"/>
+      <c r="D196" s="21"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C198" s="10">
+        <v>1</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B201" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B203" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C203" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="5">
         <v>2</v>
       </c>
-      <c r="B192" s="10">
-        <v>300</v>
-      </c>
-      <c r="C192" s="10">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B194" s="16"/>
-      <c r="C194" s="16"/>
-      <c r="D194" s="16"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B195" s="3" t="s">
+      <c r="B204" s="5">
+        <v>5</v>
+      </c>
+      <c r="C204" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B206" s="24"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="24"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B207" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C207" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D207" s="22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B196" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="10">
-        <v>1</v>
-      </c>
-      <c r="D196" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B199" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="5">
-        <v>2</v>
-      </c>
-      <c r="B202" s="5">
-        <v>5</v>
-      </c>
-      <c r="C202" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B204" s="18"/>
-      <c r="C204" s="18"/>
-      <c r="D204" s="18"/>
-      <c r="E204" s="18"/>
-      <c r="F204" s="18"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D205" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C206" s="10">
-        <v>1</v>
-      </c>
-      <c r="D206" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" s="14"/>
-      <c r="F206" s="15"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C207" s="10">
-        <v>50</v>
-      </c>
-      <c r="D207" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" s="14"/>
-      <c r="F207" s="15"/>
+      <c r="E207" s="23"/>
+      <c r="F207" s="23"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B208" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C208" s="10">
-        <v>50</v>
-      </c>
-      <c r="D208" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" s="14"/>
-      <c r="F208" s="15"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D208" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="19"/>
+      <c r="F208" s="20"/>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B209" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C209" s="10">
-        <v>50</v>
-      </c>
-      <c r="D209" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E209" s="14"/>
-      <c r="F209" s="15"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="D209" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="19"/>
+      <c r="F209" s="20"/>
+      <c r="G209" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="10">
+        <v>112</v>
+      </c>
+      <c r="D210" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="19"/>
+      <c r="F210" s="20"/>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B211" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211" s="10">
+        <v>112</v>
+      </c>
+      <c r="D211" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="19"/>
+      <c r="F211" s="20"/>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B210" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="10">
-        <v>50</v>
-      </c>
-      <c r="D210" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" s="14"/>
-      <c r="F210" s="15"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+      <c r="B212" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="10">
+        <v>112</v>
+      </c>
+      <c r="D212" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="19"/>
+      <c r="F212" s="20"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B212" s="5">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B213" s="5">
+      <c r="B214" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B215" s="5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B217" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C217" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="5">
-        <v>201</v>
-      </c>
-      <c r="B216" s="5">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" s="16">
+        <v>1347</v>
+      </c>
+      <c r="B218" s="5">
         <v>3</v>
       </c>
-      <c r="C216" s="5">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="18" t="s">
+      <c r="C218" s="16">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B218" s="18"/>
-      <c r="C218" s="18"/>
-      <c r="D218" s="18"/>
-      <c r="E218" s="18"/>
-      <c r="F218" s="18"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B219" s="3" t="s">
+      <c r="B220" s="24"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="24"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B221" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C221" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D219" s="19" t="s">
+      <c r="D221" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="10" t="s">
+      <c r="E221" s="23"/>
+      <c r="F221" s="23"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B220" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C220" s="10">
-        <v>5000</v>
-      </c>
-      <c r="D220" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E220" s="14"/>
-      <c r="F220" s="15"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
+      <c r="B222" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="10">
+        <v>1</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="19"/>
+      <c r="F222" s="20"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B223" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C221" s="10">
+      <c r="C223" s="10">
         <v>2</v>
       </c>
-      <c r="D221" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221" s="14"/>
-      <c r="F221" s="15"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="10" t="s">
+      <c r="D223" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="19"/>
+      <c r="F223" s="20"/>
+      <c r="G223" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B222" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C222" s="10">
+      <c r="B224" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" s="10">
         <v>2</v>
       </c>
-      <c r="D222" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" s="14"/>
-      <c r="F222" s="15"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
+      <c r="D224" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="19"/>
+      <c r="F224" s="20"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B226" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B225" s="5">
-        <v>3</v>
-      </c>
-    </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B227" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B229" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C229" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="5">
-        <v>5004</v>
-      </c>
-      <c r="B228" s="5">
-        <v>1</v>
-      </c>
-      <c r="C228" s="5">
-        <v>5004</v>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="5">
+        <v>5</v>
+      </c>
+      <c r="B230" s="5">
+        <v>1</v>
+      </c>
+      <c r="C230" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3411,22 +3460,22 @@
     <mergeCell ref="E115:J115"/>
     <mergeCell ref="E114:J114"/>
     <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="D205:F205"/>
-    <mergeCell ref="D220:F220"/>
-    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="D207:F207"/>
     <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
     <mergeCell ref="A159:D159"/>
     <mergeCell ref="A170:D170"/>
     <mergeCell ref="A184:D184"/>
-    <mergeCell ref="D219:F219"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="A220:F220"/>
     <mergeCell ref="D209:F209"/>
     <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Accessi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2134230-7DA7-4B03-84B3-16348BC43AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB16B820-D3E7-4560-AD7C-0C69C7FD1036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="3030" windowWidth="13995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="57">
   <si>
     <t>D1 Inserimento di un nuovo vaccino</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Fornisce</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Fornitore</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Appartenenza</t>
   </si>
   <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
     <t>Dosi</t>
   </si>
   <si>
@@ -199,6 +193,9 @@
   </si>
   <si>
     <t>Prima dose+richiamo=2 in media a persona</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -375,7 +372,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -384,26 +390,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -415,9 +405,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -700,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,12 +710,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -831,12 +828,12 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
@@ -858,7 +855,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>6</v>
@@ -874,10 +871,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C14" s="11">
         <v>1</v>
@@ -981,12 +978,12 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
@@ -1027,7 +1024,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -1040,7 +1037,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
@@ -1131,12 +1128,12 @@
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
@@ -1174,10 +1171,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>6</v>
@@ -1206,10 +1203,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C40" s="12">
         <v>1</v>
@@ -1222,7 +1219,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>6</v>
@@ -1284,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1313,13 +1310,13 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
+      <c r="A49" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1332,10 +1329,10 @@
       <c r="C50" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="30"/>
+      <c r="E50" s="24"/>
       <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1352,17 +1349,17 @@
         <v>8</v>
       </c>
       <c r="E51" s="20"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C52" s="11">
         <v>16</v>
@@ -1371,18 +1368,18 @@
         <v>8</v>
       </c>
       <c r="E52" s="20"/>
-      <c r="F52" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
+      <c r="F52" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>6</v>
@@ -1401,10 +1398,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C54" s="11">
         <v>16</v>
@@ -1420,7 +1417,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>6</v>
@@ -1428,10 +1425,10 @@
       <c r="C55" s="8">
         <v>16</v>
       </c>
-      <c r="D55" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="30"/>
+      <c r="D55" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="24"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -1490,7 +1487,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1527,15 +1524,15 @@
       <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
+      <c r="A65" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1556,7 +1553,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>6</v>
@@ -1618,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1647,12 +1644,12 @@
       <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="23"/>
+      <c r="A75" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
     </row>
@@ -1690,10 +1687,10 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C78" s="17">
         <v>1000000</v>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>6</v>
@@ -1797,14 +1794,14 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
+      <c r="A87" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="27"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
@@ -1816,11 +1813,11 @@
       <c r="C88" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="29" t="s">
+      <c r="D88" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E88" s="31"/>
-      <c r="F88" s="30"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
@@ -1832,18 +1829,18 @@
       <c r="C89" s="17">
         <v>1000</v>
       </c>
-      <c r="D89" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
+      <c r="D89" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C90" s="17">
         <v>480000</v>
@@ -1854,12 +1851,12 @@
       <c r="E90" s="19"/>
       <c r="F90" s="20"/>
       <c r="G90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>6</v>
@@ -1950,14 +1947,14 @@
       <c r="F98" s="1"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="21"/>
-      <c r="F99" s="23"/>
+      <c r="A99" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B99" s="27"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
@@ -1969,11 +1966,11 @@
       <c r="C100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D100" s="22" t="s">
+      <c r="D100" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
@@ -1993,23 +1990,23 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C102" s="17">
         <v>1000000</v>
       </c>
-      <c r="D102" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
+      <c r="D102" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>6</v>
@@ -2017,11 +2014,11 @@
       <c r="C103" s="17">
         <v>1000000</v>
       </c>
-      <c r="D103" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
+      <c r="D103" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="21"/>
+      <c r="F103" s="21"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
@@ -2071,7 +2068,7 @@
         <v>10</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -2100,12 +2097,12 @@
       <c r="F110" s="1"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B111" s="21"/>
-      <c r="C111" s="21"/>
-      <c r="D111" s="21"/>
+      <c r="A111" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
     </row>
@@ -2143,10 +2140,10 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C114" s="17">
         <v>480000</v>
@@ -2154,18 +2151,18 @@
       <c r="D114" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E114" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
+      <c r="E114" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>6</v>
@@ -2176,14 +2173,14 @@
       <c r="D115" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E115" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
+      <c r="E115" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="33"/>
+      <c r="J115" s="33"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
@@ -2262,14 +2259,14 @@
       <c r="F122" s="1"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B123" s="21"/>
-      <c r="C123" s="21"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="21"/>
+      <c r="A123" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
+      <c r="D123" s="27"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
@@ -2281,11 +2278,11 @@
       <c r="C124" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="23"/>
-      <c r="F124" s="23"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
@@ -2303,15 +2300,15 @@
       <c r="E125" s="19"/>
       <c r="F125" s="20"/>
       <c r="G125" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C126" s="17">
         <v>12800</v>
@@ -2322,12 +2319,12 @@
       <c r="E126" s="19"/>
       <c r="F126" s="20"/>
       <c r="G126" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>6</v>
@@ -2389,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -2418,12 +2415,12 @@
       <c r="F134" s="1"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="30"/>
+      <c r="A135" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B135" s="23"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
     </row>
@@ -2445,7 +2442,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>6</v>
@@ -2461,10 +2458,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C138" s="4">
         <v>10</v>
@@ -2539,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -2568,14 +2565,14 @@
       <c r="F146" s="1"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B147" s="21"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
+      <c r="A147" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="27"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
@@ -2587,15 +2584,15 @@
       <c r="C148" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="D148" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="23"/>
-      <c r="F148" s="23"/>
+      <c r="E148" s="26"/>
+      <c r="F148" s="26"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>6</v>
@@ -2603,27 +2600,27 @@
       <c r="C149" s="4">
         <v>5</v>
       </c>
-      <c r="D149" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="25"/>
+      <c r="D149" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="21"/>
+      <c r="F149" s="21"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C150" s="4">
         <v>5</v>
       </c>
-      <c r="D150" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
+      <c r="D150" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="21"/>
+      <c r="F150" s="21"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
@@ -2635,11 +2632,11 @@
       <c r="C151" s="4">
         <v>10</v>
       </c>
-      <c r="D151" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" s="25"/>
-      <c r="F151" s="25"/>
+      <c r="D151" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="21"/>
+      <c r="F151" s="21"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
@@ -2689,7 +2686,7 @@
         <v>10</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -2718,12 +2715,12 @@
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B159" s="21"/>
-      <c r="C159" s="21"/>
-      <c r="D159" s="21"/>
+      <c r="A159" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="27"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
     </row>
@@ -2745,7 +2742,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>6</v>
@@ -2807,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -2828,12 +2825,12 @@
       <c r="F167" s="1"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B170" s="21"/>
-      <c r="C170" s="21"/>
-      <c r="D170" s="21"/>
+      <c r="A170" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="27"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
@@ -2865,10 +2862,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C173" s="10">
         <v>1</v>
@@ -2879,7 +2876,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B174" s="10" t="s">
         <v>6</v>
@@ -2893,10 +2890,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C175" s="10">
         <v>1</v>
@@ -2907,7 +2904,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B176" s="10" t="s">
         <v>6</v>
@@ -2959,7 +2956,7 @@
         <v>10</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D181" s="1"/>
     </row>
@@ -2982,12 +2979,12 @@
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B184" s="21"/>
-      <c r="C184" s="21"/>
-      <c r="D184" s="21"/>
+      <c r="A184" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
@@ -3005,7 +3002,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B186" s="10" t="s">
         <v>6</v>
@@ -3019,10 +3016,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C187" s="13">
         <v>1</v>
@@ -3033,7 +3030,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B188" s="13" t="s">
         <v>6</v>
@@ -3069,7 +3066,7 @@
         <v>10</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -3084,12 +3081,12 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B196" s="21"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="21"/>
+      <c r="A196" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B196" s="27"/>
+      <c r="C196" s="27"/>
+      <c r="D196" s="27"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
@@ -3107,7 +3104,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B198" s="10" t="s">
         <v>6</v>
@@ -3143,7 +3140,7 @@
         <v>10</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -3158,14 +3155,14 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B206" s="24"/>
-      <c r="C206" s="24"/>
-      <c r="D206" s="24"/>
-      <c r="E206" s="24"/>
-      <c r="F206" s="24"/>
+      <c r="A206" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B206" s="35"/>
+      <c r="C206" s="35"/>
+      <c r="D206" s="35"/>
+      <c r="E206" s="35"/>
+      <c r="F206" s="35"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
@@ -3177,11 +3174,11 @@
       <c r="C207" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D207" s="22" t="s">
+      <c r="D207" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E207" s="23"/>
-      <c r="F207" s="23"/>
+      <c r="E207" s="26"/>
+      <c r="F207" s="26"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
@@ -3201,10 +3198,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B209" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C209" s="10">
         <v>112</v>
@@ -3215,12 +3212,12 @@
       <c r="E209" s="19"/>
       <c r="F209" s="20"/>
       <c r="G209" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>6</v>
@@ -3236,10 +3233,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B211" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C211" s="10">
         <v>112</v>
@@ -3252,7 +3249,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B212" s="10" t="s">
         <v>6</v>
@@ -3290,7 +3287,7 @@
         <v>10</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -3305,14 +3302,14 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B220" s="24"/>
-      <c r="C220" s="24"/>
-      <c r="D220" s="24"/>
-      <c r="E220" s="24"/>
-      <c r="F220" s="24"/>
+      <c r="A220" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B220" s="35"/>
+      <c r="C220" s="35"/>
+      <c r="D220" s="35"/>
+      <c r="E220" s="35"/>
+      <c r="F220" s="35"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
@@ -3324,15 +3321,15 @@
       <c r="C221" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D221" s="22" t="s">
+      <c r="D221" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E221" s="23"/>
-      <c r="F221" s="23"/>
+      <c r="E221" s="26"/>
+      <c r="F221" s="26"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B222" s="10" t="s">
         <v>6</v>
@@ -3348,10 +3345,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B223" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="C223" s="10">
         <v>2</v>
@@ -3362,12 +3359,12 @@
       <c r="E223" s="19"/>
       <c r="F223" s="20"/>
       <c r="G223" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B224" s="10" t="s">
         <v>6</v>
@@ -3421,26 +3418,29 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="D125:F125"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="D127:F127"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D100:F100"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="D223:F223"/>
+    <mergeCell ref="D224:F224"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A170:D170"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="D221:F221"/>
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="D210:F210"/>
+    <mergeCell ref="D211:F211"/>
+    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="A196:D196"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="E115:J115"/>
+    <mergeCell ref="E114:J114"/>
     <mergeCell ref="A87:F87"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="A65:D65"/>
@@ -3453,29 +3453,26 @@
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F52:K52"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="E115:J115"/>
-    <mergeCell ref="E114:J114"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="A196:D196"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="D223:F223"/>
-    <mergeCell ref="D224:F224"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A170:D170"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="D221:F221"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="D210:F210"/>
-    <mergeCell ref="D211:F211"/>
-    <mergeCell ref="D212:F212"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="D125:F125"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="D127:F127"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="A147:F147"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
